--- a/medicine/Psychotrope/Privatbrauerei_Gebr._Mayer/Privatbrauerei_Gebr._Mayer.xlsx
+++ b/medicine/Psychotrope/Privatbrauerei_Gebr._Mayer/Privatbrauerei_Gebr._Mayer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Privatbrauerei Gebr. Mayer est une brasserie à Oggersheim, quartier de la vieille ville de Ludwigshafen.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Ludwig Christ crée une petite brasserie pour la première fois le long de la Kreuzgasse en 1846. L'une des filles de Christ épouse Carl Daniel Mayer d'Alzey qui devient partenaire en 1866. La brasserie s'appelle Christ &amp; Mayer. En 1872, Christ &amp; Mayer est dissoute et la brasserie est reprise conjointement par Carl Daniel Mayer et son frère Fritz Mayer (1848–1899) sous le nom de Gebrüder Mayer, de sorte que la brasserie s'appelle Gebr. Mayer depuis.
 Les frères Heinrich Mayer (1876–1955), Wilhelm Mayer (1877–1931) et Albert Mayer (1879–1929) sont les associés gérants de la brasserie de 1904 à 1929. En 1929, Hans Mayer (1908–1964), fils de Willy Mayer, entre et en 1933 Fritz Mayer (1907–1955), fils d'Albert Mayer. Dans les années 1960, Hans-Dieter (fils de Hans Mayer) et Hans-Gerd Mayer (fils de Fritz Mayer) reprennent l'entreprise.
